--- a/PyCitySchools/PyCityAnalysis workbook.xlsx
+++ b/PyCitySchools/PyCityAnalysis workbook.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonof\UCSDProjects\pandas-challenge\PyCitySchools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCE3675-CAB7-4512-9D17-4EDFB7B40298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1795BC5-7C07-40A2-A90A-9EAE507BB144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27090" yWindow="45" windowWidth="25515" windowHeight="15390" xr2:uid="{D2ECE8CF-E735-402D-B9BF-AE71747D6604}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2ECE8CF-E735-402D-B9BF-AE71747D6604}"/>
   </bookViews>
   <sheets>
-    <sheet name="Analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary Analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="by Grade" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Analysis!$B$5:$S$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'by Grade'!$I$3:$M$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary Analysis'!$B$5:$S$20</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="45">
   <si>
     <t>Total Students</t>
   </si>
@@ -143,6 +145,27 @@
   <si>
     <t>Dispersion</t>
   </si>
+  <si>
+    <t>9th Grade</t>
+  </si>
+  <si>
+    <t>10th Grade</t>
+  </si>
+  <si>
+    <t>11th Grade</t>
+  </si>
+  <si>
+    <t>12th Grade</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
 </sst>
 </file>
 
@@ -152,11 +175,11 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00000000_);_(* \(#,##0.00000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.00000000_);_(* \(#,##0.00000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -210,7 +233,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,8 +288,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -313,13 +342,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -355,9 +393,9 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -379,10 +417,10 @@
     <xf numFmtId="8" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="171" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -392,7 +430,7 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -401,36 +439,60 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -602,7 +664,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Analysis!$D$6:$D$20</c:f>
+              <c:f>'Summary Analysis'!$D$6:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -656,7 +718,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Analysis!$E$6:$E$20</c:f>
+              <c:f>'Summary Analysis'!$E$6:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00000_);_(* \(#,##0.00000\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1068,7 +1130,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Analysis!$F$6:$F$20</c:f>
+              <c:f>'Summary Analysis'!$F$6:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1122,7 +1184,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Analysis!$G$6:$G$20</c:f>
+              <c:f>'Summary Analysis'!$G$6:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00000000_);_(* \(#,##0.00000000\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2838,7 +2900,7 @@
   <dimension ref="B2:X30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2862,7 +2924,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2880,58 +2942,58 @@
       <c r="U4" s="12"/>
     </row>
     <row r="5" spans="2:24" ht="24" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="46" t="s">
+      <c r="M5" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="46" t="s">
+      <c r="N5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="46" t="s">
+      <c r="O5" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="46" t="s">
+      <c r="Q5" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="R5" s="46" t="s">
+      <c r="R5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="46" t="s">
+      <c r="S5" s="45" t="s">
         <v>36</v>
       </c>
       <c r="T5" s="14"/>
@@ -2953,7 +3015,7 @@
       <c r="F6" s="9">
         <v>248087</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="43">
         <f>_xlfn.NORM.DIST(F6,F$25,F$30,FALSE)</f>
         <v>1.3393225864271086E-7</v>
       </c>
@@ -2993,16 +3055,13 @@
         <v>3.3980174104951955</v>
       </c>
       <c r="R6" s="6">
-        <v>0.83809999999999996</v>
+        <v>0.94379999999999997</v>
       </c>
       <c r="S6" s="27">
         <f>_xlfn.NORM.DIST(R6,R$25,R$30,FALSE)</f>
-        <v>10.380441627282952</v>
-      </c>
-      <c r="T6" s="50">
-        <f>(N6+P6)/2</f>
-        <v>0.94379999999999997</v>
-      </c>
+        <v>2.5604509525147359</v>
+      </c>
+      <c r="T6" s="48"/>
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
       <c r="X6" s="16"/>
@@ -3024,7 +3083,7 @@
       <c r="F7" s="9">
         <v>585858</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="43">
         <f>_xlfn.NORM.DIST(F7,F$25,F$30,FALSE)</f>
         <v>2.2256748234930571E-7</v>
       </c>
@@ -3064,16 +3123,13 @@
         <v>3.5121972733520535</v>
       </c>
       <c r="R7" s="11">
-        <v>0.83940000000000003</v>
+        <v>0.95269999999999999</v>
       </c>
       <c r="S7" s="27">
         <f>_xlfn.NORM.DIST(R7,R$25,R$30,FALSE)</f>
-        <v>9.8158702330689582</v>
-      </c>
-      <c r="T7" s="50">
-        <f t="shared" ref="T7:T20" si="0">(N7+P7)/2</f>
-        <v>0.95269999999999999</v>
-      </c>
+        <v>2.3739614009896237</v>
+      </c>
+      <c r="T7" s="48"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
     </row>
@@ -3094,7 +3150,7 @@
       <c r="F8" s="4">
         <v>917500</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="43">
         <f>_xlfn.NORM.DIST(F8,F$25,F$30,FALSE)</f>
         <v>3.1983435765101063E-7</v>
       </c>
@@ -3134,16 +3190,13 @@
         <v>3.054655920419838</v>
       </c>
       <c r="R8" s="6">
-        <v>0.83579999999999999</v>
+        <v>0.95269999999999999</v>
       </c>
       <c r="S8" s="27">
         <f>_xlfn.NORM.DIST(R8,R$25,R$30,FALSE)</f>
-        <v>11.375137299988664</v>
-      </c>
-      <c r="T8" s="50">
-        <f t="shared" si="0"/>
-        <v>0.95265</v>
-      </c>
+        <v>2.3739614009896237</v>
+      </c>
+      <c r="T8" s="48"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
     </row>
@@ -3164,7 +3217,7 @@
       <c r="F9" s="4">
         <v>1043130</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="43">
         <f>_xlfn.NORM.DIST(F9,F$25,F$30,FALSE)</f>
         <v>3.5422436380158333E-7</v>
       </c>
@@ -3204,16 +3257,13 @@
         <v>2.9888150593890832</v>
       </c>
       <c r="R9" s="6">
-        <v>0.83630000000000004</v>
+        <v>0.95289999999999997</v>
       </c>
       <c r="S9" s="27">
         <f>_xlfn.NORM.DIST(R9,R$25,R$30,FALSE)</f>
-        <v>11.160104637767072</v>
-      </c>
-      <c r="T9" s="50">
-        <f t="shared" si="0"/>
-        <v>0.95289999999999997</v>
-      </c>
+        <v>2.3697420382155077</v>
+      </c>
+      <c r="T9" s="48"/>
       <c r="U9" s="15"/>
       <c r="V9" s="15"/>
     </row>
@@ -3234,7 +3284,7 @@
       <c r="F10" s="9">
         <v>1056600</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="43">
         <f>_xlfn.NORM.DIST(F10,F$25,F$30,FALSE)</f>
         <v>3.5771330445416457E-7</v>
       </c>
@@ -3274,16 +3324,13 @@
         <v>3.5499667051246382</v>
       </c>
       <c r="R10" s="11">
-        <v>0.83540000000000003</v>
+        <v>0.9486</v>
       </c>
       <c r="S10" s="27">
         <f>_xlfn.NORM.DIST(R10,R$25,R$30,FALSE)</f>
-        <v>11.54641016948764</v>
-      </c>
-      <c r="T10" s="50">
-        <f t="shared" si="0"/>
-        <v>0.9486</v>
-      </c>
+        <v>2.4602371522997974</v>
+      </c>
+      <c r="T10" s="48"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
     </row>
@@ -3304,7 +3351,7 @@
       <c r="F11" s="4">
         <v>1049400</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="43">
         <f>_xlfn.NORM.DIST(F11,F$25,F$30,FALSE)</f>
         <v>3.5585398699606014E-7</v>
       </c>
@@ -3344,16 +3391,13 @@
         <v>3.2596851087036183</v>
       </c>
       <c r="R11" s="6">
-        <v>0.83819999999999995</v>
+        <v>0.94969999999999999</v>
       </c>
       <c r="S11" s="27">
         <f>_xlfn.NORM.DIST(R11,R$25,R$30,FALSE)</f>
-        <v>10.336996956767097</v>
-      </c>
-      <c r="T11" s="50">
-        <f t="shared" si="0"/>
-        <v>0.94969999999999999</v>
-      </c>
+        <v>2.4371382887638995</v>
+      </c>
+      <c r="T11" s="48"/>
       <c r="V11" s="15"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
@@ -3373,7 +3417,7 @@
       <c r="F12" s="9">
         <v>1081356</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="43">
         <f>_xlfn.NORM.DIST(F12,F$25,F$30,FALSE)</f>
         <v>3.6400411100517041E-7</v>
       </c>
@@ -3413,16 +3457,13 @@
         <v>3.0933926993892729</v>
       </c>
       <c r="R12" s="11">
-        <v>0.83520000000000005</v>
+        <v>0.95589999999999997</v>
       </c>
       <c r="S12" s="27">
         <f>_xlfn.NORM.DIST(R12,R$25,R$30,FALSE)</f>
-        <v>11.63175799013163</v>
-      </c>
-      <c r="T12" s="50">
-        <f t="shared" si="0"/>
-        <v>0.95585000000000009</v>
-      </c>
+        <v>2.3063763516543307</v>
+      </c>
+      <c r="T12" s="48"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
@@ -3441,7 +3482,7 @@
       <c r="F13" s="9">
         <v>1319574</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G13" s="43">
         <f>_xlfn.NORM.DIST(F13,F$25,F$30,FALSE)</f>
         <v>4.1426801381718156E-7</v>
       </c>
@@ -3481,16 +3522,13 @@
         <v>3.2866687223947166</v>
       </c>
       <c r="R13" s="11">
-        <v>0.83630000000000004</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="S13" s="27">
         <f>_xlfn.NORM.DIST(R13,R$25,R$30,FALSE)</f>
-        <v>11.160104637767072</v>
-      </c>
-      <c r="T13" s="50">
-        <f t="shared" si="0"/>
-        <v>0.95205000000000006</v>
-      </c>
+        <v>2.388722658182544</v>
+      </c>
+      <c r="T13" s="48"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -3509,7 +3547,7 @@
       <c r="F14" s="9">
         <v>1763916</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="43">
         <f>_xlfn.NORM.DIST(F14,F$25,F$30,FALSE)</f>
         <v>4.3783462503317563E-7</v>
       </c>
@@ -3549,16 +3587,13 @@
         <v>2.2966257831436625</v>
       </c>
       <c r="R14" s="11">
-        <v>0.78920000000000001</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="S14" s="27">
         <f>_xlfn.NORM.DIST(R14,R$25,R$30,FALSE)</f>
-        <v>9.3889246637922685</v>
-      </c>
-      <c r="T14" s="50">
-        <f t="shared" si="0"/>
-        <v>0.73805000000000009</v>
-      </c>
+        <v>2.134094757182496</v>
+      </c>
+      <c r="T14" s="48"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
@@ -3577,7 +3612,7 @@
       <c r="F15" s="9">
         <v>1910635</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="43">
         <f>_xlfn.NORM.DIST(F15,F$25,F$30,FALSE)</f>
         <v>4.2281890659900034E-7</v>
       </c>
@@ -3617,16 +3652,13 @@
         <v>3.0634365070501968</v>
       </c>
       <c r="R15" s="11">
-        <v>0.78910000000000002</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="S15" s="27">
         <f>_xlfn.NORM.DIST(R15,R$25,R$30,FALSE)</f>
-        <v>9.3457915262344997</v>
-      </c>
-      <c r="T15" s="50">
-        <f t="shared" si="0"/>
-        <v>0.7350000000000001</v>
-      </c>
+        <v>2.0709651784644785</v>
+      </c>
+      <c r="T15" s="48"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
@@ -3645,7 +3677,7 @@
       <c r="F16" s="4">
         <v>1884411</v>
       </c>
-      <c r="G16" s="44">
+      <c r="G16" s="43">
         <f>_xlfn.NORM.DIST(F16,F$25,F$30,FALSE)</f>
         <v>4.2628947438846571E-7</v>
       </c>
@@ -3685,16 +3717,13 @@
         <v>2.839142591115527</v>
       </c>
       <c r="R16" s="6">
-        <v>0.7893</v>
+        <v>0.73360000000000003</v>
       </c>
       <c r="S16" s="27">
         <f>_xlfn.NORM.DIST(R16,R$25,R$30,FALSE)</f>
-        <v>9.4320875032139355</v>
-      </c>
-      <c r="T16" s="50">
-        <f t="shared" si="0"/>
-        <v>0.73365000000000002</v>
-      </c>
+        <v>2.0415975599705618</v>
+      </c>
+      <c r="T16" s="48"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
@@ -3713,7 +3742,7 @@
       <c r="F17" s="4">
         <v>2547363</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="43">
         <f>_xlfn.NORM.DIST(F17,F$25,F$30,FALSE)</f>
         <v>2.6764633686445291E-7</v>
       </c>
@@ -3753,16 +3782,13 @@
         <v>2.6399339981297198</v>
       </c>
       <c r="R17" s="11">
-        <v>0.78790000000000004</v>
+        <v>0.7329</v>
       </c>
       <c r="S17" s="27">
         <f>_xlfn.NORM.DIST(R17,R$25,R$30,FALSE)</f>
-        <v>8.8310152126845924</v>
-      </c>
-      <c r="T17" s="50">
-        <f t="shared" si="0"/>
-        <v>0.73294999999999999</v>
-      </c>
+        <v>2.026940083198618</v>
+      </c>
+      <c r="T17" s="48"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
@@ -3781,7 +3807,7 @@
       <c r="F18" s="9">
         <v>3022020</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="43">
         <f>_xlfn.NORM.DIST(F18,F$25,F$30,FALSE)</f>
         <v>1.3773982242943028E-7</v>
       </c>
@@ -3821,16 +3847,13 @@
         <v>2.885434184855364</v>
       </c>
       <c r="R18" s="11">
-        <v>0.79110000000000003</v>
+        <v>0.73809999999999998</v>
       </c>
       <c r="S18" s="27">
         <f>_xlfn.NORM.DIST(R18,R$25,R$30,FALSE)</f>
-        <v>10.212444290469444</v>
-      </c>
-      <c r="T18" s="50">
-        <f t="shared" si="0"/>
-        <v>0.73804999999999998</v>
-      </c>
+        <v>2.136202959722016</v>
+      </c>
+      <c r="T18" s="48"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
@@ -3849,7 +3872,7 @@
       <c r="F19" s="4">
         <v>3094650</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="43">
         <f>_xlfn.NORM.DIST(F19,F$25,F$30,FALSE)</f>
         <v>1.2143128809228758E-7</v>
       </c>
@@ -3889,16 +3912,13 @@
         <v>3.0247003541580648</v>
       </c>
       <c r="R19" s="6">
-        <v>0.79020000000000001</v>
+        <v>0.73640000000000005</v>
       </c>
       <c r="S19" s="27">
         <f>_xlfn.NORM.DIST(R19,R$25,R$30,FALSE)</f>
-        <v>9.8216532008017765</v>
-      </c>
-      <c r="T19" s="50">
-        <f t="shared" si="0"/>
-        <v>0.73639999999999994</v>
-      </c>
+        <v>2.1003954154691535</v>
+      </c>
+      <c r="T19" s="48"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
@@ -3917,7 +3937,7 @@
       <c r="F20" s="4">
         <v>3124928</v>
       </c>
-      <c r="G20" s="44">
+      <c r="G20" s="43">
         <f>_xlfn.NORM.DIST(F20,F$25,F$30,FALSE)</f>
         <v>1.1499675569591885E-7</v>
       </c>
@@ -3957,25 +3977,22 @@
         <v>3.2992488329537166</v>
       </c>
       <c r="R20" s="6">
-        <v>0.79039999999999999</v>
+        <v>0.74309999999999998</v>
       </c>
       <c r="S20" s="27">
         <f>_xlfn.NORM.DIST(R20,R$25,R$30,FALSE)</f>
-        <v>9.9084281134356438</v>
-      </c>
-      <c r="T20" s="50">
-        <f t="shared" si="0"/>
-        <v>0.74304999999999999</v>
-      </c>
+        <v>2.2418123260184082</v>
+      </c>
+      <c r="T20" s="48"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="41"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="30"/>
       <c r="D21" s="31"/>
       <c r="E21" s="32"/>
       <c r="F21" s="33"/>
       <c r="G21" s="32"/>
-      <c r="H21" s="42"/>
+      <c r="H21" s="41"/>
       <c r="I21" s="32"/>
       <c r="J21" s="34"/>
       <c r="K21" s="35"/>
@@ -4055,89 +4072,89 @@
       <c r="C24" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="42">
         <f>MEDIAN(D6:D20)</f>
         <v>2283</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="43">
+      <c r="E24" s="38"/>
+      <c r="F24" s="42">
         <f>MEDIAN(F6:F20)</f>
         <v>1319574</v>
       </c>
-      <c r="G24" s="39"/>
-      <c r="H24" s="40">
+      <c r="G24" s="38"/>
+      <c r="H24" s="39">
         <f>MEDIAN(H6:H20)</f>
         <v>628</v>
       </c>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40">
+      <c r="I24" s="39"/>
+      <c r="J24" s="39">
         <f>MEDIAN(J6:J20)</f>
         <v>83.06</v>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40">
+      <c r="K24" s="39"/>
+      <c r="L24" s="39">
         <f>MEDIAN(L6:L20)</f>
         <v>83.73</v>
       </c>
-      <c r="M24" s="40"/>
-      <c r="N24" s="48">
+      <c r="M24" s="39"/>
+      <c r="N24" s="46">
         <f>MEDIAN(N6:N20)</f>
         <v>0.92510000000000003</v>
       </c>
-      <c r="O24" s="40"/>
-      <c r="P24" s="48">
+      <c r="O24" s="39"/>
+      <c r="P24" s="46">
         <f>MEDIAN(P6:P20)</f>
         <v>0.95850000000000002</v>
       </c>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48">
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46">
         <f>MEDIAN(R6:R20)</f>
-        <v>0.83520000000000005</v>
+        <v>0.94379999999999997</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="37"/>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="43">
+      <c r="D25" s="52">
         <f>AVERAGE(D6:D20)</f>
         <v>2611.3333333333335</v>
       </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="43">
+      <c r="E25" s="51"/>
+      <c r="F25" s="52">
         <f>AVERAGE(F6:F20)</f>
         <v>1643295.2</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="40">
+      <c r="G25" s="51"/>
+      <c r="H25" s="53">
         <f>AVERAGE(H6:H20)</f>
         <v>620.06666666666672</v>
       </c>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40">
+      <c r="I25" s="53"/>
+      <c r="J25" s="53">
         <f>AVERAGE(J6:J20)</f>
         <v>80.431333333333342</v>
       </c>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40">
+      <c r="K25" s="53"/>
+      <c r="L25" s="53">
         <f>AVERAGE(L6:L20)</f>
         <v>82.529333333333327</v>
       </c>
-      <c r="M25" s="40"/>
-      <c r="N25" s="48">
+      <c r="M25" s="53"/>
+      <c r="N25" s="54">
         <f>AVERAGE(N6:N20)</f>
         <v>0.80986666666666685</v>
       </c>
-      <c r="O25" s="40"/>
-      <c r="P25" s="48">
+      <c r="O25" s="53"/>
+      <c r="P25" s="54">
         <f>AVERAGE(P6:P20)</f>
         <v>0.89218666666666668</v>
       </c>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48">
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54">
         <f>AVERAGE(R6:R20)</f>
-        <v>0.81479333333333359</v>
+        <v>0.85102666666666649</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
@@ -4145,44 +4162,44 @@
       <c r="C26" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="43">
+      <c r="D26" s="42">
         <f>MIN(D6:D20)</f>
         <v>427</v>
       </c>
       <c r="E26" s="37"/>
-      <c r="F26" s="43">
+      <c r="F26" s="42">
         <f>MIN(F6:F20)</f>
         <v>248087</v>
       </c>
       <c r="G26" s="37"/>
-      <c r="H26" s="40">
+      <c r="H26" s="39">
         <f>MIN(H6:H20)</f>
         <v>578</v>
       </c>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40">
+      <c r="I26" s="39"/>
+      <c r="J26" s="39">
         <f>MIN(J6:J20)</f>
         <v>76.63</v>
       </c>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40">
+      <c r="K26" s="39"/>
+      <c r="L26" s="39">
         <f>MIN(L6:L20)</f>
         <v>80.739999999999995</v>
       </c>
-      <c r="M26" s="40"/>
-      <c r="N26" s="48">
+      <c r="M26" s="39"/>
+      <c r="N26" s="46">
         <f>MIN(N6:N20)</f>
         <v>0.65680000000000005</v>
       </c>
-      <c r="O26" s="40"/>
-      <c r="P26" s="48">
+      <c r="O26" s="39"/>
+      <c r="P26" s="46">
         <f>MIN(P6:P20)</f>
         <v>0.79300000000000004</v>
       </c>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48">
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46">
         <f>MIN(R6:R20)</f>
-        <v>0.78790000000000004</v>
+        <v>0.7329</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
@@ -4224,127 +4241,144 @@
       <c r="Q27" s="26"/>
       <c r="R27" s="26">
         <f>MAX(R6:R20)</f>
-        <v>0.83940000000000003</v>
+        <v>0.95589999999999997</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+      <c r="C28" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="56">
         <f>D27-D26</f>
         <v>4549</v>
       </c>
-      <c r="F28" s="14">
+      <c r="E28" s="55"/>
+      <c r="F28" s="56">
         <f>F27-F26</f>
         <v>2876841</v>
       </c>
-      <c r="H28" s="14">
+      <c r="G28" s="55"/>
+      <c r="H28" s="56">
         <f>H27-H26</f>
         <v>77</v>
       </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="56">
+        <f t="shared" ref="J28:R28" si="0">J27-J26</f>
+        <v>7.210000000000008</v>
+      </c>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000114</v>
+      </c>
+      <c r="M28" s="56"/>
+      <c r="N28" s="60">
+        <f t="shared" si="0"/>
+        <v>0.28909999999999991</v>
+      </c>
+      <c r="O28" s="56"/>
+      <c r="P28" s="60">
+        <f t="shared" si="0"/>
+        <v>0.18009999999999993</v>
+      </c>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="60">
+        <f t="shared" si="0"/>
+        <v>0.22299999999999998</v>
+      </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="37"/>
       <c r="C29" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="42">
         <f>_xlfn.VAR.P(D6:D20)</f>
         <v>1884400.2222222222</v>
       </c>
       <c r="E29" s="37"/>
-      <c r="F29" s="43">
+      <c r="F29" s="42">
         <f>_xlfn.VAR.P(F6:F20)</f>
         <v>815552938983.62671</v>
       </c>
       <c r="G29" s="37"/>
-      <c r="H29" s="40">
+      <c r="H29" s="39">
         <f>_xlfn.VAR.P(H6:H20)</f>
         <v>760.46222222222229</v>
       </c>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40">
+      <c r="I29" s="39"/>
+      <c r="J29" s="39">
         <f>_xlfn.VAR.P(J6:J20)</f>
         <v>10.627358222222229</v>
       </c>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40">
+      <c r="K29" s="39"/>
+      <c r="L29" s="39">
         <f>_xlfn.VAR.P(L6:L20)</f>
         <v>2.1572995555555536</v>
       </c>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40">
+      <c r="M29" s="39"/>
+      <c r="N29" s="39">
         <f>_xlfn.VAR.P(N6:N20)</f>
         <v>1.8288894222221692E-2</v>
       </c>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40">
+      <c r="O29" s="39"/>
+      <c r="P29" s="39">
         <f>_xlfn.VAR.P(P6:P20)</f>
         <v>6.2463504888888889E-3</v>
       </c>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40">
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39">
         <f>_xlfn.VAR.P(R6:R20)</f>
-        <v>5.5690328888888881E-4</v>
+        <v>1.14420686222224E-2</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="52">
         <f>_xlfn.STDEV.P(D6:D20)</f>
         <v>1372.7345782132184</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="43">
+      <c r="E30" s="58"/>
+      <c r="F30" s="52">
         <f>_xlfn.STDEV.P(F6:F20)</f>
         <v>903079.69691695913</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30" s="58">
         <f>F25/F30</f>
         <v>1.8196568980678853</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="58">
         <f>_xlfn.STDEV.P(H6:H20)</f>
         <v>27.576479511029365</v>
       </c>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38">
+      <c r="I30" s="58"/>
+      <c r="J30" s="58">
         <f>_xlfn.STDEV.P(J6:J20)</f>
         <v>3.2599629173078379</v>
       </c>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38">
+      <c r="K30" s="58"/>
+      <c r="L30" s="58">
         <f>_xlfn.STDEV.P(L6:L20)</f>
         <v>1.468774848489568</v>
       </c>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38">
+      <c r="M30" s="58"/>
+      <c r="N30" s="58">
         <f>_xlfn.STDEV.P(N6:N20)</f>
         <v>0.1352364382192229</v>
       </c>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38">
+      <c r="O30" s="58"/>
+      <c r="P30" s="58">
         <f>_xlfn.STDEV.P(P6:P20)</f>
         <v>7.903385659885824E-2</v>
       </c>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="47">
+      <c r="Q30" s="51"/>
+      <c r="R30" s="59">
         <f>_xlfn.STDEV.P(R6:R20)</f>
-        <v>2.3598798462821976E-2</v>
+        <v>0.10696760548045563</v>
       </c>
     </row>
   </sheetData>
@@ -4357,4 +4391,679 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232D7C6D-04B8-4C17-B2B6-CF34A2B0E114}">
+  <dimension ref="B1:N18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="63"/>
+    <col min="9" max="9" width="26.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="63"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>81.3</v>
+      </c>
+      <c r="D4">
+        <v>80.91</v>
+      </c>
+      <c r="E4">
+        <v>80.95</v>
+      </c>
+      <c r="F4">
+        <v>80.91</v>
+      </c>
+      <c r="G4" s="63">
+        <f>AVERAGE(C4:F4)</f>
+        <v>81.017499999999984</v>
+      </c>
+      <c r="I4" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="49">
+        <v>77.08</v>
+      </c>
+      <c r="K4" s="49">
+        <v>77</v>
+      </c>
+      <c r="L4" s="49">
+        <v>77.52</v>
+      </c>
+      <c r="M4" s="49">
+        <v>76.489999999999995</v>
+      </c>
+      <c r="N4" s="63">
+        <f>AVERAGE(J4:M4)</f>
+        <v>77.022499999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>83.68</v>
+      </c>
+      <c r="D5">
+        <v>84.25</v>
+      </c>
+      <c r="E5">
+        <v>83.79</v>
+      </c>
+      <c r="F5">
+        <v>84.29</v>
+      </c>
+      <c r="G5" s="63">
+        <f t="shared" ref="G5:G18" si="0">AVERAGE(C5:F5)</f>
+        <v>84.002500000000012</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="50">
+        <v>83.09</v>
+      </c>
+      <c r="K5" s="50">
+        <v>83.15</v>
+      </c>
+      <c r="L5" s="50">
+        <v>82.77</v>
+      </c>
+      <c r="M5" s="50">
+        <v>83.28</v>
+      </c>
+      <c r="N5" s="63">
+        <f t="shared" ref="N5:N18" si="1">AVERAGE(J5:M5)</f>
+        <v>83.072499999999991</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>81.2</v>
+      </c>
+      <c r="D6">
+        <v>81.41</v>
+      </c>
+      <c r="E6">
+        <v>80.64</v>
+      </c>
+      <c r="F6">
+        <v>81.38</v>
+      </c>
+      <c r="G6" s="63">
+        <f t="shared" si="0"/>
+        <v>81.157499999999999</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="49">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="K6" s="49">
+        <v>76.540000000000006</v>
+      </c>
+      <c r="L6" s="49">
+        <v>76.88</v>
+      </c>
+      <c r="M6" s="49">
+        <v>77.150000000000006</v>
+      </c>
+      <c r="N6" s="63">
+        <f t="shared" si="1"/>
+        <v>76.742500000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>80.63</v>
+      </c>
+      <c r="D7">
+        <v>81.260000000000005</v>
+      </c>
+      <c r="E7">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="F7">
+        <v>80.66</v>
+      </c>
+      <c r="G7" s="63">
+        <f t="shared" si="0"/>
+        <v>80.737499999999997</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="50">
+        <v>77.36</v>
+      </c>
+      <c r="K7" s="50">
+        <v>77.67</v>
+      </c>
+      <c r="L7" s="50">
+        <v>76.92</v>
+      </c>
+      <c r="M7" s="50">
+        <v>76.180000000000007</v>
+      </c>
+      <c r="N7" s="63">
+        <f t="shared" si="1"/>
+        <v>77.032499999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>83.37</v>
+      </c>
+      <c r="D8">
+        <v>83.71</v>
+      </c>
+      <c r="E8">
+        <v>84.29</v>
+      </c>
+      <c r="F8">
+        <v>84.01</v>
+      </c>
+      <c r="G8" s="63">
+        <f t="shared" si="0"/>
+        <v>83.844999999999999</v>
+      </c>
+      <c r="I8" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="49">
+        <v>82.04</v>
+      </c>
+      <c r="K8" s="49">
+        <v>84.23</v>
+      </c>
+      <c r="L8" s="49">
+        <v>83.84</v>
+      </c>
+      <c r="M8" s="49">
+        <v>83.36</v>
+      </c>
+      <c r="N8" s="63">
+        <f t="shared" si="1"/>
+        <v>83.367500000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>80.87</v>
+      </c>
+      <c r="D9">
+        <v>80.66</v>
+      </c>
+      <c r="E9">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="F9">
+        <v>80.86</v>
+      </c>
+      <c r="G9" s="63">
+        <f t="shared" si="0"/>
+        <v>80.947500000000005</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="50">
+        <v>77.44</v>
+      </c>
+      <c r="K9" s="50">
+        <v>77.34</v>
+      </c>
+      <c r="L9" s="50">
+        <v>77.14</v>
+      </c>
+      <c r="M9" s="50">
+        <v>77.19</v>
+      </c>
+      <c r="N9" s="63">
+        <f t="shared" si="1"/>
+        <v>77.277500000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>83.68</v>
+      </c>
+      <c r="D10">
+        <v>83.32</v>
+      </c>
+      <c r="E10">
+        <v>83.82</v>
+      </c>
+      <c r="F10">
+        <v>84.7</v>
+      </c>
+      <c r="G10" s="63">
+        <f t="shared" si="0"/>
+        <v>83.88</v>
+      </c>
+      <c r="I10" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="49">
+        <v>83.79</v>
+      </c>
+      <c r="K10" s="49">
+        <v>83.43</v>
+      </c>
+      <c r="L10" s="49">
+        <v>85</v>
+      </c>
+      <c r="M10" s="49">
+        <v>82.86</v>
+      </c>
+      <c r="N10" s="63">
+        <f t="shared" si="1"/>
+        <v>83.77000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>81.290000000000006</v>
+      </c>
+      <c r="D11">
+        <v>81.510000000000005</v>
+      </c>
+      <c r="E11">
+        <v>81.42</v>
+      </c>
+      <c r="F11">
+        <v>80.31</v>
+      </c>
+      <c r="G11" s="63">
+        <f t="shared" si="0"/>
+        <v>81.132500000000007</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="50">
+        <v>77.03</v>
+      </c>
+      <c r="K11" s="50">
+        <v>75.91</v>
+      </c>
+      <c r="L11" s="50">
+        <v>76.45</v>
+      </c>
+      <c r="M11" s="50">
+        <v>77.23</v>
+      </c>
+      <c r="N11" s="63">
+        <f t="shared" si="1"/>
+        <v>76.655000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>81.260000000000005</v>
+      </c>
+      <c r="D12">
+        <v>80.77</v>
+      </c>
+      <c r="E12">
+        <v>80.62</v>
+      </c>
+      <c r="F12">
+        <v>81.23</v>
+      </c>
+      <c r="G12" s="63">
+        <f t="shared" si="0"/>
+        <v>80.97</v>
+      </c>
+      <c r="I12" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="49">
+        <v>77.19</v>
+      </c>
+      <c r="K12" s="49">
+        <v>76.69</v>
+      </c>
+      <c r="L12" s="49">
+        <v>77.489999999999995</v>
+      </c>
+      <c r="M12" s="49">
+        <v>76.86</v>
+      </c>
+      <c r="N12" s="63">
+        <f t="shared" si="1"/>
+        <v>77.057500000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>83.81</v>
+      </c>
+      <c r="D13">
+        <v>83.61</v>
+      </c>
+      <c r="E13">
+        <v>84.34</v>
+      </c>
+      <c r="F13">
+        <v>84.59</v>
+      </c>
+      <c r="G13" s="63">
+        <f t="shared" si="0"/>
+        <v>84.087500000000006</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="50">
+        <v>83.63</v>
+      </c>
+      <c r="K13" s="50">
+        <v>83.37</v>
+      </c>
+      <c r="L13" s="50">
+        <v>84.33</v>
+      </c>
+      <c r="M13" s="50">
+        <v>84.12</v>
+      </c>
+      <c r="N13" s="63">
+        <f t="shared" si="1"/>
+        <v>83.862499999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>80.989999999999995</v>
+      </c>
+      <c r="D14">
+        <v>80.63</v>
+      </c>
+      <c r="E14">
+        <v>80.86</v>
+      </c>
+      <c r="F14">
+        <v>80.38</v>
+      </c>
+      <c r="G14" s="63">
+        <f t="shared" si="0"/>
+        <v>80.715000000000003</v>
+      </c>
+      <c r="I14" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="49">
+        <v>76.86</v>
+      </c>
+      <c r="K14" s="49">
+        <v>76.61</v>
+      </c>
+      <c r="L14" s="49">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="M14" s="49">
+        <v>77.69</v>
+      </c>
+      <c r="N14" s="63">
+        <f t="shared" si="1"/>
+        <v>76.89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>84.12</v>
+      </c>
+      <c r="D15">
+        <v>83.44</v>
+      </c>
+      <c r="E15">
+        <v>84.37</v>
+      </c>
+      <c r="F15">
+        <v>82.78</v>
+      </c>
+      <c r="G15" s="63">
+        <f t="shared" si="0"/>
+        <v>83.677500000000009</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="50">
+        <v>83.42</v>
+      </c>
+      <c r="K15" s="50">
+        <v>82.92</v>
+      </c>
+      <c r="L15" s="50">
+        <v>83.38</v>
+      </c>
+      <c r="M15" s="50">
+        <v>83.78</v>
+      </c>
+      <c r="N15" s="63">
+        <f t="shared" si="1"/>
+        <v>83.375</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>83.73</v>
+      </c>
+      <c r="D16">
+        <v>84.25</v>
+      </c>
+      <c r="E16">
+        <v>83.59</v>
+      </c>
+      <c r="F16">
+        <v>83.83</v>
+      </c>
+      <c r="G16" s="63">
+        <f t="shared" si="0"/>
+        <v>83.850000000000009</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="50">
+        <v>83.59</v>
+      </c>
+      <c r="K16" s="50">
+        <v>83.09</v>
+      </c>
+      <c r="L16" s="50">
+        <v>83.5</v>
+      </c>
+      <c r="M16" s="50">
+        <v>83.5</v>
+      </c>
+      <c r="N16" s="63">
+        <f t="shared" si="1"/>
+        <v>83.42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>83.94</v>
+      </c>
+      <c r="D17">
+        <v>84.02</v>
+      </c>
+      <c r="E17">
+        <v>83.76</v>
+      </c>
+      <c r="F17">
+        <v>84.32</v>
+      </c>
+      <c r="G17" s="63">
+        <f t="shared" si="0"/>
+        <v>84.009999999999991</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="50">
+        <v>83.09</v>
+      </c>
+      <c r="K17" s="50">
+        <v>83.72</v>
+      </c>
+      <c r="L17" s="50">
+        <v>83.2</v>
+      </c>
+      <c r="M17" s="50">
+        <v>83.04</v>
+      </c>
+      <c r="N17" s="63">
+        <f t="shared" si="1"/>
+        <v>83.262500000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>83.83</v>
+      </c>
+      <c r="D18">
+        <v>83.81</v>
+      </c>
+      <c r="E18">
+        <v>84.16</v>
+      </c>
+      <c r="F18">
+        <v>84.07</v>
+      </c>
+      <c r="G18" s="63">
+        <f t="shared" si="0"/>
+        <v>83.967500000000001</v>
+      </c>
+      <c r="I18" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="49">
+        <v>83.26</v>
+      </c>
+      <c r="K18" s="49">
+        <v>84.01</v>
+      </c>
+      <c r="L18" s="49">
+        <v>83.84</v>
+      </c>
+      <c r="M18" s="49">
+        <v>83.64</v>
+      </c>
+      <c r="N18" s="63">
+        <f t="shared" si="1"/>
+        <v>83.6875</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="I3:M18" xr:uid="{EEDBFC02-9C29-4D6F-92EE-B3129B91B4FF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I4:M18">
+      <sortCondition ref="I3:I18"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>